--- a/results/I3_N5_M3_T15_C100_DepCentral_s2_P3_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4278541869132</v>
+        <v>1287.706724749106</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.10785418691139</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.828177710068261</v>
+        <v>10.08257625195636</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.828177710068261</v>
+        <v>9.074935918213756</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>396.9400000000019</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.3800000000001</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,12 +628,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -929,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.134510687494963</v>
+        <v>9.865489312505037</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9.200658506961251</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.17182228993174</v>
+        <v>4.82817771006826</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.48326856299774</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.79170115929614</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1086,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1100,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1114,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1128,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,15 +1142,155 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.97499999999985</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>36.46999999999986</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>35.41999999999985</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.46999999999986</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>134.5599999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>140.1899999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>129.1399999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>139.4649999999997</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>138.8949999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>93.39000000000037</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>93.47500000000036</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>91.28000000000037</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>91.81500000000037</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>93.57500000000036</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>93.21000000000058</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>78.75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>80.99500000000057</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>81.20500000000058</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.27000000000058</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>134.5599999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>140.1899999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>129.1399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>139.4649999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>138.8949999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>93.21000000000058</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>78.75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>80.99500000000057</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>81.20500000000058</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>90.27000000000058</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>104.4450000000006</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>101.6750000000006</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>103.7150000000006</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>104.5350000000006</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>101.85</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>34.55999999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>40.18999999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.13999999999973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>39.46499999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>38.89499999999973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.445000000000577</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1.675000000000577</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3.71500000000059</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.53500000000059</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.85</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2375,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2386,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2397,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2408,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,7 +2419,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2235,7 +2430,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2246,7 +2441,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2257,7 +2452,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2268,7 +2463,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2279,12 +2474,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
